--- a/StructureDefinition-ext-R5-VerificationResult.attestation.xlsx
+++ b/StructureDefinition-ext-R5-VerificationResult.attestation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -445,7 +445,7 @@
     <t>Extension.extension:onBehalfOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -482,15 +482,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Method for communicating with the data source (manual; API; Push).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-verificationresult-communication-method-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:date</t>
@@ -1013,8 +1004,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.1015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2976,13 +2967,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3020,13 +3011,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3051,14 +3042,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3127,7 +3118,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3230,7 +3221,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3335,7 +3326,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3378,7 +3369,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3440,7 +3431,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3466,13 +3457,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3543,13 +3534,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3574,14 +3565,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3650,7 +3641,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3753,7 +3744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3858,7 +3849,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3901,7 +3892,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3963,7 +3954,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3992,10 +3983,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4066,13 +4057,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4097,14 +4088,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4173,7 +4164,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4276,7 +4267,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4381,7 +4372,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4424,7 +4415,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4486,7 +4477,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4515,10 +4506,10 @@
         <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4589,13 +4580,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4620,14 +4611,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4696,7 +4687,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4799,7 +4790,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4904,7 +4895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4947,7 +4938,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5009,7 +5000,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5035,13 +5026,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5112,13 +5103,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5143,14 +5134,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5219,7 +5210,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5322,7 +5313,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5427,7 +5418,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5470,7 +5461,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5532,7 +5523,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5558,13 +5549,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5766,13 +5757,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
